--- a/Ownership Research_Updated.xlsx
+++ b/Ownership Research_Updated.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB6D3CD-EEA4-47B1-BDCB-CE5231BF189F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588BE01E-074A-4E4C-80B7-68066F82D603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3BE5FC41-1A90-4F69-8744-905FAB49D20D}"/>
   </bookViews>
   <sheets>
     <sheet name="generators" sheetId="1" r:id="rId1"/>
+    <sheet name="Notes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,8 +34,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="259">
   <si>
     <t>GENERATOR_ID</t>
   </si>
@@ -561,149 +584,1026 @@
     <t>Haldimand-norfolk</t>
   </si>
   <si>
-    <t>Elora BESS LP (Aypa Power Canada Development LP &amp; Six Nations of the Grand River Development Corporation)</t>
-  </si>
-  <si>
-    <t>https://www.snfuture.com/projects/elora-bess-project/</t>
-  </si>
-  <si>
-    <t>Monroe Power LLC (Open Road Renewables)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Unable to access the original source link; alternative sources not found.</t>
-  </si>
-  <si>
     <t>Alberta Electric System Operator</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>https://www.interconnection.fyi/project/aeso-p2777</t>
-  </si>
-  <si>
-    <t>Riverstart Solar Park II LLC (EDP Renewables North America)</t>
-  </si>
-  <si>
-    <t>https://www.interconnection.fyi/project/pjm-ae2-220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Midcontinent Independent System Operator, Inc., And IL Solar 1, LLC, And Ameren Services Company as agent for Ameren Illinois Company d/b/a Ameren Illinois </t>
-  </si>
-  <si>
-    <t>https://cdn.misoenergy.org/Ameren%20Illinois-IL%20Solar%201st%20Rev%20GIA%20J1208%20J1209%20SA%203934%20Public630294.pdf</t>
-  </si>
-  <si>
-    <t>EDP Renewables North America</t>
-  </si>
-  <si>
-    <t>Company Site not accessible</t>
-  </si>
-  <si>
-    <t>CO-Frosty Valley LLC</t>
-  </si>
-  <si>
-    <t>Dominion Energy Virginia</t>
-  </si>
-  <si>
-    <t>https://thecharlottegazette.com/2022/10/28/dominion-proposes-to-acquire-courthouse-solar/</t>
-  </si>
-  <si>
-    <t>NC3 Ahoskie South Solar, LLC</t>
-  </si>
-  <si>
-    <t>US Wind Inc</t>
-  </si>
-  <si>
-    <t>Pine Gate Renewables</t>
-  </si>
-  <si>
-    <t>chrome-extension://efaidnbmnnnibpcajpcglclefindmkaj/https://img1.wsimg.com/blobby/go/88b93667-7b19-4c27-a0d0-db782256409e/Virginia%20Solar%20Projects-Nov%202021.pdf</t>
-  </si>
-  <si>
-    <t>chrome-extension://efaidnbmnnnibpcajpcglclefindmkaj/https://www.kinggeorgecountyva.gov/DocumentCenter/View/15209/Gibson-Solar-Siting-Agreement-Clean125149471</t>
-  </si>
-  <si>
-    <t>Gibson Solar I, LLC</t>
-  </si>
-  <si>
-    <t>Apex Clean Energy</t>
-  </si>
-  <si>
-    <t>https://www.misoenergy.org/planning/transmission-planning/mtep#t=10&amp;p=0&amp;s=&amp;sd=</t>
-  </si>
-  <si>
-    <t>Erin MPC Solar Battery Ltd.</t>
-  </si>
-  <si>
-    <t>chrome-extension://efaidnbmnnnibpcajpcglclefindmkaj/https://aeso.ca/assets/Uploads/connecting-to-the-grid/cluster-assessment-reporting/cluster1/2024-Cluster-1-Study-Conceptual-System-Plan-CNTL-01_20240625-final.pdf</t>
-  </si>
-  <si>
-    <t>https://www.interconnection.fyi/project/pjm-af2-433</t>
-  </si>
-  <si>
-    <t>Black Diamond Renewable Energy Corporation</t>
-  </si>
-  <si>
-    <t>https://medicinehatnews.com/news/local-news/2022/04/14/a-third-major-wind-project-proposed-for-cypress-county/</t>
-  </si>
-  <si>
-    <t>chrome-extension://efaidnbmnnnibpcajpcglclefindmkaj/https://www.dominionenergy.com/-/media/pdfs/global/renewable-projects/renewables-map-va-nc-sc-large-scale.pdf?rev=6d2b83338b2448bebeca2d06319cee20&amp;utm</t>
-  </si>
-  <si>
-    <t>Evolugen (Brookfield Renewable Power Inc.),  Algonquins of Pikwakanagan First Nation (AOPFN)</t>
-  </si>
-  <si>
-    <t>https://powerandtelecom.ca/daily-news/two-battery-energy-storage-system-projects-selected-by-the-ontario-ieso/</t>
-  </si>
-  <si>
-    <t>Boralex Inc., Six Nations of the Grand River Development Corporation (SNGRDC)</t>
-  </si>
-  <si>
-    <t>https://sndevcorp.ca/three-sngrdc-battery-storage-projects-awarded-ieso-contracts/</t>
-  </si>
-  <si>
-    <t>https://www.interconnection.fyi/project/pjm-af2-416</t>
-  </si>
-  <si>
-    <t>Dawn Harvest Solar Energy LLC</t>
-  </si>
-  <si>
     <t>https://psc.wi.gov/Pages/CommissionActions/CasePages/DawnHarvestSolar.aspx</t>
   </si>
   <si>
-    <t>Fortis Inc.</t>
-  </si>
-  <si>
-    <t>https://acrobat.adobe.com/id/urn:aaid:sc:AP:b3fd1e0b-1d30-4e59-9b57-e9c2eb8b6c8a</t>
-  </si>
-  <si>
-    <t>https://www.interconnection.fyi/project/pjm-af2-295</t>
-  </si>
-  <si>
-    <t>EL-Evergreen LLC</t>
-  </si>
-  <si>
     <t>CG Fulton County LLC</t>
   </si>
   <si>
-    <t>https://www.fultonsolarproject.com/</t>
-  </si>
-  <si>
-    <t>Aypa Power and SNGRDC</t>
-  </si>
-  <si>
-    <t>https://hedley.aypa.com/</t>
-  </si>
-  <si>
-    <t>chrome-extension://efaidnbmnnnibpcajpcglclefindmkaj/https://www.boem.gov/sites/default/files/documents/renewable-energy/state-activities/US%20Wind%20Construction%20and%20Operations%20Plan%20Volume%20I.pdf</t>
+    <t>DATA DICTIONARY</t>
+  </si>
+  <si>
+    <t>TABLE CONTENTS</t>
+  </si>
+  <si>
+    <t>MEANINGS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unique ID number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for each generator. Think of it like a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>roll number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for the generator.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name of the generator unit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. For example, a wind farm might have several wind turbines with names like “Turbine A1”, “Turbine A2”, etc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>overall name of the power project</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Example: “Sunshine Solar Farm”. It may include several generator units.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>type of energy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is being used — like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>solar, wind, battery (storage), natural gas, etc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How much electricity the generator can produce, in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>megawatts (MW)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Bigger number = more power. For example, 100 MW can power around 20,000 homes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the project is in — like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proposed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Under Construction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Operating (active)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The date when the generator </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>first started producing electricity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>expected end date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the generator’s life, when it might stop working.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>actual date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (if known) when the generator </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stopped working</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>U.S. state (like TX, CA, IN) or Canadian province (ON = Ontario, AB = Alberta).</t>
+  </si>
+  <si>
+    <t>Local region inside the state/province (like “LaPorte” in Indiana or “Wellington” in Ontario).</t>
+  </si>
+  <si>
+    <t>Where the project connects to the electric grid — not always filled in.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The grid operator for the region — examples: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PJM, MISO, CAISO, ERCOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Non-ISO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (for places without a regional grid operator). Think of it as the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>traffic controller for electricity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the area.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The company that owns the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>big power lines and infrastructure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that the project (generator) will connect to.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unique number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that shows where the project is in the line (or queue) to connect to the power grid.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A number assigned by the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U.S. Energy Information Administration (EIA)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>whole power plant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Another ID by the EIA — but this one is for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>individual generator units</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> inside the plant.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This is where </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>you will write the name of the company</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that owns the project, based on your research.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Link where we find this </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>information.</t>
+    </r>
+  </si>
+  <si>
+    <t>ISO Code</t>
+  </si>
+  <si>
+    <t>Full Form</t>
+  </si>
+  <si>
+    <t>Independent System Operator</t>
+  </si>
+  <si>
+    <t>A company that manages the power grid and electricity markets in a specific region.</t>
+  </si>
+  <si>
+    <t>Independent Electricity System Operator</t>
+  </si>
+  <si>
+    <t>Manages Ontario’s (Canada) electricity system and connects new power projects to the grid.</t>
+  </si>
+  <si>
+    <t>Midcontinent Independent System Operator</t>
+  </si>
+  <si>
+    <t>Runs the power grid in the U.S. Midwest (like Indiana, Illinois, Missouri) and manages power trading.</t>
+  </si>
+  <si>
+    <t>Handles electricity flow, connections, and planning for Alberta’s (Canada) power grid.</t>
+  </si>
+  <si>
+    <t>PJM Interconnection</t>
+  </si>
+  <si>
+    <t>One of the largest U.S. grid managers — covers eastern states like Pennsylvania, Ohio, and Virginia.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The project is in early stages. It is still being </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>evaluated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — checking grid connection, cost, and feasibility.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">“IA” stands for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Interconnection Agreement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. This means the project has </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>official permission</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to connect to the grid.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The project is currently </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>being built</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — equipment is being installed, construction is underway.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The project has been </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>paused</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or put </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>on hold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, often due to funding, legal, or technical issues.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Meaning </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">These are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>battery storage systems</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (like BESS) that store electricity to use later.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The project uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>solar panels</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to convert sunlight into electricity.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The project uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wind turbines</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to generate power from the wind.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The project </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>burns natural gas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to create electricity — a conventional method.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">What It Means </t>
+  </si>
+  <si>
+    <t>chrome-extension://efaidnbmnnnibpcajpcglclefindmkaj/https://cdn.prod.website-files.com/64ce85a6e633f0c2d9027072/67efe572db1440be02e2b247_Nov25th%20Public%20Meeting%20Q%26A%20by%20Aypa_for%20public%20distribution.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aypa Power Canada </t>
+  </si>
+  <si>
+    <t>https://list.solar/news/524mwh-bess-project/</t>
+  </si>
+  <si>
+    <t>Open Road Renewables</t>
+  </si>
+  <si>
+    <t>chrome-extension://efaidnbmnnnibpcajpcglclefindmkaj/https://industrialheartland.com/wp-content/uploads/2022/05/AlpinSun_Sol-Aurora-Press-Release_220427FINAL.pdf</t>
+  </si>
+  <si>
+    <t>Alpin Sun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Source found for the 125 MW project, only </t>
+  </si>
+  <si>
+    <t>information about 200 MW projects and also some sites are blocked.</t>
+  </si>
+  <si>
+    <t>No Details Found</t>
+  </si>
+  <si>
+    <t>NOVI</t>
+  </si>
+  <si>
+    <t>https://www.novienergy.com/project/courthouse-solar-pv-development/</t>
+  </si>
+  <si>
+    <t>chrome-extension://efaidnbmnnnibpcajpcglclefindmkaj/https://starw1.ncuc.gov/NCUC/ViewFile.aspx?Id=9b130614-2ec9-446f-93db-36a452071363</t>
+  </si>
+  <si>
+    <t>Ahoskie South, LLC</t>
+  </si>
+  <si>
+    <t>US Wind</t>
+  </si>
+  <si>
+    <t>https://www.delawareonline.com/story/news/local/2025/01/09/us-wind-files-appeal-sussex-county-council-permit-denial/77513222007/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link is not working </t>
+  </si>
+  <si>
+    <t>https://citizenportal.ai/articles/2602325/King-George-County/Virginia/King-George-board-debates-Gibson-Solars-plan-amid-community-concerns-about-impact</t>
+  </si>
+  <si>
+    <t>https://www.nexteraenergyresources.com/montgomery-solar.html</t>
+  </si>
+  <si>
+    <t> NextEra Energy Resources, LLC</t>
+  </si>
+  <si>
+    <t>https://renewablesnow.com/news/mpc-capital-commissions-43-mw-solar-farm-in-dominican-republic-867688/</t>
+  </si>
+  <si>
+    <t>Only found this source other is interconnection fyi</t>
+  </si>
+  <si>
+    <t>Most of the links are not working</t>
+  </si>
+  <si>
+    <t>https://medicinehatnews.com/news/local-news/2024/04/26/wind-farm-near-cypress-hills-first-to-be-tested-on-view-scapes/</t>
+  </si>
+  <si>
+    <t>Capstone Infrastructure</t>
+  </si>
+  <si>
+    <t>chrome-extension://efaidnbmnnnibpcajpcglclefindmkaj/https://evolugen.com/wp-content/uploads/2023/11/Open-House-Presentation_Fitzroy-BESS-Project_Nov-2023.pdf</t>
+  </si>
+  <si>
+    <t>Evolugen</t>
+  </si>
+  <si>
+    <t>Boralex</t>
+  </si>
+  <si>
+    <t>https://www.boralex.com/en/projects-and-sites/storage-oxford</t>
+  </si>
+  <si>
+    <t>POWER SOLUTIONS  A Division of Langley Holdings plc</t>
+  </si>
+  <si>
+    <t>chrome-extension://efaidnbmnnnibpcajpcglclefindmkaj/https://www.bergenengines.com/wp-content/uploads/2024/05/Power-of-10-Microgrids-White-Paper.pdf</t>
+  </si>
+  <si>
+    <t>Invenergy Solar Development North America LLC</t>
+  </si>
+  <si>
+    <t>FortisAlberta Reversing POD</t>
+  </si>
+  <si>
+    <t>chrome-extension://efaidnbmnnnibpcajpcglclefindmkaj/https://www-integ.aeso.ca/assets/Uploads/grid-related-initiatives/Loss-Factors/AESO-Adjustments-to-2023-Loss-Factors-2023-05-30.pdf</t>
+  </si>
+  <si>
+    <t>https://solrivercapital.com/project-gallery/elk-renewable-energy-project/</t>
+  </si>
+  <si>
+    <t>SolRiver</t>
+  </si>
+  <si>
+    <t>https://www.fultonsolarproject.com/news/notice-of-public-informational-meeting-for-proposed-major-utility-facility/</t>
+  </si>
+  <si>
+    <t>https://www.snfuture.com/projects/hedley-bess-project/</t>
+  </si>
+  <si>
+    <t>SIX NATIONS OF THE GRAND RIVER and Aypa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -852,8 +1752,34 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF081325"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1033,8 +1959,62 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1149,6 +2129,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1195,12 +2216,61 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1614,31 +2684,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF475E2-DC51-48E4-8512-99DCEB093B53}">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" customWidth="1"/>
-    <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="45.33203125" customWidth="1"/>
-    <col min="17" max="17" width="44.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="90.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="192.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="44.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="53.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -1738,10 +2807,10 @@
         <v>25</v>
       </c>
       <c r="R2" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -1784,11 +2853,11 @@
       <c r="Q3" t="s">
         <v>35</v>
       </c>
-      <c r="R3" t="s">
-        <v>177</v>
-      </c>
-      <c r="S3" t="s">
-        <v>178</v>
+      <c r="R3" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="16.8" x14ac:dyDescent="0.4">
@@ -1829,13 +2898,13 @@
         <v>58776</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="R4" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>181</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1882,10 +2951,10 @@
         <v>49</v>
       </c>
       <c r="R5" t="s">
-        <v>182</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>183</v>
+        <v>227</v>
+      </c>
+      <c r="S5" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -1932,11 +3001,9 @@
         <v>57</v>
       </c>
       <c r="R6" t="s">
-        <v>184</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>185</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1982,10 +3049,7 @@
         <v>57</v>
       </c>
       <c r="R7" t="s">
-        <v>186</v>
-      </c>
-      <c r="S7" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -2031,8 +3095,8 @@
       <c r="Q8" t="s">
         <v>70</v>
       </c>
-      <c r="R8" s="4" t="s">
-        <v>188</v>
+      <c r="R8" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -2072,6 +3136,9 @@
       <c r="N9" s="1">
         <v>58776</v>
       </c>
+      <c r="R9" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -2123,10 +3190,10 @@
         <v>84</v>
       </c>
       <c r="R10" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -2173,10 +3240,10 @@
         <v>84</v>
       </c>
       <c r="R11" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -2222,11 +3289,11 @@
       <c r="Q12" t="s">
         <v>98</v>
       </c>
-      <c r="R12" s="4" t="s">
-        <v>192</v>
+      <c r="R12" t="s">
+        <v>234</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -2273,10 +3340,10 @@
         <v>84</v>
       </c>
       <c r="R13" t="s">
-        <v>193</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>194</v>
+        <v>229</v>
+      </c>
+      <c r="S13" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -2322,11 +3389,11 @@
       <c r="Q14" t="s">
         <v>84</v>
       </c>
-      <c r="R14" s="4" t="s">
-        <v>196</v>
+      <c r="R14" t="s">
+        <v>229</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>195</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -2373,10 +3440,10 @@
         <v>116</v>
       </c>
       <c r="R15" t="s">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -2413,11 +3480,11 @@
       <c r="M16" s="1">
         <v>46905</v>
       </c>
-      <c r="R16" s="4" t="s">
-        <v>199</v>
+      <c r="R16" t="s">
+        <v>241</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -2464,10 +3531,10 @@
         <v>70</v>
       </c>
       <c r="R17" t="s">
-        <v>188</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>201</v>
+        <v>229</v>
+      </c>
+      <c r="S17" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -2507,11 +3574,11 @@
       <c r="N18" s="1">
         <v>55228</v>
       </c>
-      <c r="R18" s="4" t="s">
-        <v>202</v>
+      <c r="R18" t="s">
+        <v>244</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -2552,10 +3619,10 @@
         <v>25</v>
       </c>
       <c r="R19" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -2596,10 +3663,10 @@
         <v>25</v>
       </c>
       <c r="R20" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -2642,9 +3709,11 @@
       <c r="Q21" t="s">
         <v>143</v>
       </c>
-      <c r="R21" s="4"/>
+      <c r="R21" t="s">
+        <v>249</v>
+      </c>
       <c r="S21" s="2" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
@@ -2687,11 +3756,11 @@
       <c r="Q22" t="s">
         <v>151</v>
       </c>
-      <c r="R22" t="s">
-        <v>210</v>
+      <c r="R22" s="21" t="s">
+        <v>251</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
@@ -2738,10 +3807,10 @@
         <v>158</v>
       </c>
       <c r="R23" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
@@ -2788,10 +3857,10 @@
         <v>164</v>
       </c>
       <c r="R24" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
@@ -2837,11 +3906,11 @@
       <c r="Q25" t="s">
         <v>171</v>
       </c>
-      <c r="R25" t="s">
-        <v>216</v>
+      <c r="R25" s="22" t="s">
+        <v>177</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
@@ -2881,46 +3950,380 @@
       <c r="Q26" t="s">
         <v>25</v>
       </c>
-      <c r="R26" t="s">
-        <v>218</v>
+      <c r="R26" s="23" t="s">
+        <v>258</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1" xr:uid="{86A239E8-479D-49BE-A2F8-FAD2265BD357}"/>
-    <hyperlink ref="S6" r:id="rId2" xr:uid="{7A3A8756-F645-41F5-89D8-1721ED4478A5}"/>
-    <hyperlink ref="S4" r:id="rId3" xr:uid="{A8D9D4B8-8D18-4547-B875-70B4DB3CA559}"/>
-    <hyperlink ref="S5" r:id="rId4" xr:uid="{61CA516E-CFEB-4B32-91F1-5E684EF0B6E1}"/>
-    <hyperlink ref="S10" r:id="rId5" xr:uid="{4B4642B1-5A17-4B3F-9C6A-F3850D6875A5}"/>
-    <hyperlink ref="S11" r:id="rId6" xr:uid="{3E3CEE90-8528-4D3C-ACAB-49A97A4FE30C}"/>
-    <hyperlink ref="S12" r:id="rId7" display="chrome-extension://efaidnbmnnnibpcajpcglclefindmkaj/https://www.boem.gov/sites/default/files/documents/renewable-energy/state-activities/US%20Wind%20Construction%20and%20Operations%20Plan%20Volume%20I.pdf?utm" xr:uid="{ACF8586B-40F5-473E-82F3-4391EDA78478}"/>
-    <hyperlink ref="S13" r:id="rId8" xr:uid="{3893DE74-6D9D-4ED4-8D0B-86A9477D2109}"/>
-    <hyperlink ref="S14" r:id="rId9" xr:uid="{7FB4CD6F-9F80-4451-986C-0568144A1240}"/>
-    <hyperlink ref="S15" r:id="rId10" location="t=10&amp;p=0&amp;s=&amp;sd=" xr:uid="{A47841BF-9EAE-4CBC-82E3-33B9F200C432}"/>
-    <hyperlink ref="S16" r:id="rId11" xr:uid="{D1BD4C12-056C-41CB-8100-125DF27E63E0}"/>
-    <hyperlink ref="S17" r:id="rId12" xr:uid="{B73EFD5D-8CC6-441C-9FA3-DA983CE39EA3}"/>
-    <hyperlink ref="S18" r:id="rId13" xr:uid="{B994FA3F-65D8-4D8D-8D5C-7FDDBB0E75FB}"/>
-    <hyperlink ref="S19" r:id="rId14" xr:uid="{59C486B3-A7D2-4D04-9842-E180ADB2E85F}"/>
-    <hyperlink ref="S20" r:id="rId15" xr:uid="{07C60154-83CA-4914-B4C7-A88EAB403F97}"/>
-    <hyperlink ref="S21" r:id="rId16" xr:uid="{4025471A-1FC9-41E2-A6BA-503934A4239D}"/>
-    <hyperlink ref="S22" r:id="rId17" xr:uid="{6473505B-0D13-427D-BAF1-6235F481A2A8}"/>
-    <hyperlink ref="S23" r:id="rId18" xr:uid="{BFC8D274-69F2-46AC-A4FB-D448AA5BC7A5}"/>
-    <hyperlink ref="S24" r:id="rId19" xr:uid="{9009C721-D3CD-4457-9DFB-90A96E4938A4}"/>
-    <hyperlink ref="S25" r:id="rId20" xr:uid="{871AAEC8-4340-4A3A-85E4-B3D207D1AFA8}"/>
-    <hyperlink ref="S26" r:id="rId21" xr:uid="{424985CE-FA2F-4739-8E0E-CCD3C2CBC504}"/>
+    <hyperlink ref="S3" r:id="rId1" xr:uid="{3A0FDE17-96A8-4020-81D5-EEB8D9025B8A}"/>
+    <hyperlink ref="R15" r:id="rId2" tooltip="Nextera Energy Resources home page" display="https://www.nexteraenergyresources.com/home.html" xr:uid="{239592FC-EEF7-4A5D-94CA-465920185A04}"/>
+    <hyperlink ref="S15" r:id="rId3" xr:uid="{C5E722FD-F9A5-4D6B-BF48-E57AB9B8ADE2}"/>
+    <hyperlink ref="S22" r:id="rId4" xr:uid="{F1B01BAE-FFDB-4786-8BA2-5CF79AC1847A}"/>
+    <hyperlink ref="S2" r:id="rId5" xr:uid="{F5B4679B-B672-49B8-B6D9-A6D0B092CBAB}"/>
+    <hyperlink ref="S4" r:id="rId6" xr:uid="{175C75B4-2E86-40A3-873F-46BC40336CF8}"/>
+    <hyperlink ref="S10" r:id="rId7" xr:uid="{B966539C-5386-4451-AD4E-28934A18544C}"/>
+    <hyperlink ref="S11" r:id="rId8" xr:uid="{B5E6EA54-563B-4321-B241-5C4A88680AF7}"/>
+    <hyperlink ref="S12" r:id="rId9" xr:uid="{47E4698F-7610-4210-851A-9AA9B9920008}"/>
+    <hyperlink ref="S14" r:id="rId10" xr:uid="{6434D150-7E2A-4C87-8F32-B21756613493}"/>
+    <hyperlink ref="S16" r:id="rId11" xr:uid="{CF34EDE8-B0EA-4B03-92C3-D38086E5F200}"/>
+    <hyperlink ref="S18" r:id="rId12" xr:uid="{A9F8FF27-3692-4C19-ABAF-B6A704A2D63F}"/>
+    <hyperlink ref="S19" r:id="rId13" xr:uid="{BCB2A373-1051-4737-8A91-B98975B27FAC}"/>
+    <hyperlink ref="S20" r:id="rId14" xr:uid="{E14656F9-FD88-4E61-907F-20AB684C5BE9}"/>
+    <hyperlink ref="S21" r:id="rId15" xr:uid="{9FC59844-588E-4803-B018-E7C163FD1FF1}"/>
+    <hyperlink ref="S23" r:id="rId16" xr:uid="{59C541F1-4D60-4F79-9D2E-A7E6A2DF6A53}"/>
+    <hyperlink ref="S24" r:id="rId17" xr:uid="{41E45695-1C25-40F7-9E2B-1343C2F50662}"/>
+    <hyperlink ref="S25" r:id="rId18" xr:uid="{591F8949-B235-43E3-AE50-96A178F05AD4}"/>
+    <hyperlink ref="S26" r:id="rId19" xr:uid="{BD792133-B72F-45A8-B710-4CC761B565E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
   <tableParts count="1">
-    <tablePart r:id="rId23"/>
+    <tablePart r:id="rId21"/>
   </tableParts>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADD0D68-CE13-4B39-80DB-5A3446C35370}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="153.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="80.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="19"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="str" cm="1">
+        <f t="array" ref="A5:A23">TRANSPOSE(Table1[#Headers])</f>
+        <v>GENERATOR_ID</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="str">
+        <v>GENERATOR_NAME</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="str">
+        <v>PROJECT_NAME</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="str">
+        <v>TYPE</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="str">
+        <v>CAPACITY_MW</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="str">
+        <v>STATUS</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="str">
+        <v>STATE</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="str">
+        <v>COUNTY</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="str">
+        <v>ISO</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="str">
+        <v>EIA_PLANT_ID</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="str">
+        <v>QUEUE_ID</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="str">
+        <v>EIA_GENERATOR_ID</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="str">
+        <v>FIRST_POWER_DATE</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="str">
+        <v>ASSUMED_RETIREMENT_DATE</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="str">
+        <v>REPORTED_RETIREMENT_DATE</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="E19" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="str">
+        <v>POINT_OF_INTERCONNECTION</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="str">
+        <v>TRANSMISSION_OWNER</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="str">
+        <v>Owner</v>
+      </c>
+      <c r="B22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="str">
+        <v>SOURCE</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Year xmlns="d5f54e57-2935-4e4d-a887-275eea1ab103" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d5f54e57-2935-4e4d-a887-275eea1ab103">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Link xmlns="d5f54e57-2935-4e4d-a887-275eea1ab103">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Link>
+    <TaxCatchAll xmlns="8408e76a-1bc6-452a-b31e-bdf88c47849f"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B577BE2DC8F38F41AF506FBEB7A67EE5" ma:contentTypeVersion="22" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96b76a5aff442d6f5464ba4a8b8b42af">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="d5f54e57-2935-4e4d-a887-275eea1ab103" xmlns:ns3="8408e76a-1bc6-452a-b31e-bdf88c47849f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b63794d3640a9063c8c7c0078fc6a0d6" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3207,34 +4610,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Year xmlns="d5f54e57-2935-4e4d-a887-275eea1ab103" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d5f54e57-2935-4e4d-a887-275eea1ab103">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Link xmlns="d5f54e57-2935-4e4d-a887-275eea1ab103">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Link>
-    <TaxCatchAll xmlns="8408e76a-1bc6-452a-b31e-bdf88c47849f"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{662CEF6B-1546-4062-A190-48690B65504F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F5CF0B0-91D1-4B4D-A7D1-5C1535BBDA4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="d5f54e57-2935-4e4d-a887-275eea1ab103"/>
+    <ds:schemaRef ds:uri="8408e76a-1bc6-452a-b31e-bdf88c47849f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F434994-C86E-4D0D-BA2F-7AF965B030DD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3252,24 +4648,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F5CF0B0-91D1-4B4D-A7D1-5C1535BBDA4A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="d5f54e57-2935-4e4d-a887-275eea1ab103"/>
-    <ds:schemaRef ds:uri="8408e76a-1bc6-452a-b31e-bdf88c47849f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{662CEF6B-1546-4062-A190-48690B65504F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>